--- a/data/trans_bre/P1401-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1401-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>1.533143758002212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.259406773037507</v>
+        <v>-1.259406773037506</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>5.335711051316238</v>
@@ -627,7 +627,7 @@
         <v>1.665651733502873</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.3942806261529446</v>
+        <v>-0.3942806261529445</v>
       </c>
     </row>
     <row r="5">
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2194649116465417</v>
+        <v>0.3151816677053678</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1951591448591421</v>
+        <v>-0.2112045409851769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.047706057708134</v>
+        <v>-2.951775181592719</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>-0.404614678619566</v>
+        <v>-0.3321760741831311</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7050911051564656</v>
+        <v>-0.6859727368261302</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.15180470496702</v>
+        <v>3.201561861471015</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.626602486236816</v>
+        <v>3.698471378215358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4118231683534518</v>
+        <v>0.3362726749517608</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>9.263979609845499</v>
+        <v>10.67345767286077</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2436675719189057</v>
+        <v>0.2313745272089116</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>0.1510396850118999</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.432275865072388</v>
+        <v>-0.4322758650723877</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.7567599291646956</v>
@@ -705,7 +705,7 @@
         <v>0.2122263771703072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1902417172022579</v>
+        <v>-0.1902417172022578</v>
       </c>
     </row>
     <row r="8">
@@ -716,20 +716,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7193377504644453</v>
+        <v>-0.7995893799989828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9637395215981494</v>
+        <v>-0.9509019263204115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.209938474050351</v>
+        <v>-2.133947734453537</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6369886450363939</v>
+        <v>-0.749578683898084</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.6744514856903655</v>
+        <v>-0.6749772575544176</v>
       </c>
     </row>
     <row r="9">
@@ -740,20 +740,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.998408846204577</v>
+        <v>3.015427272405056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.084458120807839</v>
+        <v>2.282430227402089</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.005855808411172</v>
+        <v>1.159372285037675</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.765644910607219</v>
+        <v>8.827709336764116</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.868049826737109</v>
+        <v>0.8403414575274439</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +774,7 @@
         <v>3.545313169959181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.076079579788996</v>
+        <v>-1.076079579788995</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.3900304327163087</v>
@@ -783,7 +783,7 @@
         <v>2.865662511441848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.4042750148254882</v>
+        <v>-0.4042750148254881</v>
       </c>
     </row>
     <row r="11">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.447260359409112</v>
+        <v>-1.259407978280886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3022265899468536</v>
+        <v>0.7457785026121089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.998493636498158</v>
+        <v>-3.045936004914189</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5384858797786427</v>
+        <v>-0.5064184016343293</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1097842375609834</v>
+        <v>0.0754410393693718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8033969574677177</v>
+        <v>-0.7998716058224125</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +820,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.871577756055772</v>
+        <v>3.818921979407265</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.552174155820509</v>
+        <v>8.199992645519423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7579611814397776</v>
+        <v>0.8144099109060021</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.531460228923684</v>
+        <v>2.453639155089231</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>11.1415337643047</v>
+        <v>12.83678141809818</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5509610379557565</v>
+        <v>0.5292716288779029</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>1.535206925880862</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.01463840579177811</v>
+        <v>0.01463840579177776</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5405761743745174</v>
@@ -865,7 +865,7 @@
         <v>2.350113778919619</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00782758629286214</v>
+        <v>0.007827586292861953</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +876,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5565268979145745</v>
+        <v>-0.5497898024158564</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5183103814560092</v>
+        <v>0.5569363844604466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.065428241023615</v>
+        <v>-0.9898247130954546</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4188787182065862</v>
+        <v>-0.4083641688238817</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4074142009940865</v>
+        <v>0.3279823376634583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4267386006416937</v>
+        <v>-0.411159013648068</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.202820076808245</v>
+        <v>2.193944765685311</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.967437355793856</v>
+        <v>2.909609446027138</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8907612313342528</v>
+        <v>1.066663498066338</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.605245986857495</v>
+        <v>2.469814518847175</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.657468043707818</v>
+        <v>7.085113223798904</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6463942025263572</v>
+        <v>0.7487928365519249</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>1.262814036727213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.855660932782568</v>
+        <v>1.855660932782569</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>2.156644031149895</v>
@@ -947,7 +947,7 @@
         <v>0.8582520229538732</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1.37982197918083</v>
+        <v>1.379821979180831</v>
       </c>
     </row>
     <row r="17">
@@ -958,22 +958,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2684209612623055</v>
+        <v>0.4886218679432598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2110411894449036</v>
+        <v>-0.318825368312931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5828289298359239</v>
+        <v>0.621325780346905</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.04862308001657617</v>
+        <v>0.1773723937839242</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2740334204396601</v>
+        <v>-0.2205380763949548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1643247093194819</v>
+        <v>0.2062422110666967</v>
       </c>
     </row>
     <row r="18">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.04429782253258</v>
+        <v>3.164777244982107</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.840215559535217</v>
+        <v>2.994296273269867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.172395410622276</v>
+        <v>3.197802033603251</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10.72609544567028</v>
+        <v>11.62752122678138</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.497587879469265</v>
+        <v>3.428259859407861</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.746213296458006</v>
+        <v>4.136079784993293</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
         <v>1.221746954948864</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2.351315510203579</v>
+        <v>2.35131551020358</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>4.188156581078693</v>
@@ -1044,13 +1044,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2566129598247391</v>
+        <v>0.2370282710735894</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6790262025839625</v>
+        <v>0.6597917960709737</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.650874712658526</v>
+        <v>1.66863000275544</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.311205100182309</v>
+        <v>2.325981617446671</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.140789089832591</v>
+        <v>2.038867141173592</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.238760630868826</v>
+        <v>3.178838846314577</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1114,22 +1114,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2528654751889387</v>
+        <v>0.2130529645374005</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5424322760347847</v>
+        <v>0.541371579693109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3252510415958924</v>
+        <v>-0.3620127013697044</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1477448570608628</v>
+        <v>0.1409145558099712</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4640702519285366</v>
+        <v>0.5010610355807237</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.139615622988845</v>
+        <v>-0.1542988679425606</v>
       </c>
     </row>
     <row r="24">
@@ -1140,22 +1140,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.573424046508586</v>
+        <v>1.545573642970341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.741648841797535</v>
+        <v>1.760219783145352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7784355346526116</v>
+        <v>0.7997713163025107</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.74551524621797</v>
+        <v>1.871070690877086</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.54741263552856</v>
+        <v>2.624394066208856</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4512178514544411</v>
+        <v>0.4660274491368964</v>
       </c>
     </row>
     <row r="25">
